--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,39 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10FDA31F-9596-AC45-8D0C-F6DA357E1338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C2B05-1D80-1A4B-9803-F2FD6AC9DC74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INTROML" sheetId="25" r:id="rId1"/>
-    <sheet name="Help Setup" sheetId="27" r:id="rId2"/>
-    <sheet name="Schedule" sheetId="2" r:id="rId3"/>
-    <sheet name="Before" sheetId="19" r:id="rId4"/>
-    <sheet name="During" sheetId="17" r:id="rId5"/>
-    <sheet name="Assignments" sheetId="26" r:id="rId6"/>
-    <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="Before" sheetId="19" r:id="rId3"/>
+    <sheet name="During" sheetId="17" r:id="rId4"/>
+    <sheet name="Assignments" sheetId="26" r:id="rId5"/>
+    <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="146">
   <si>
     <t>Day</t>
   </si>
@@ -75,9 +64,6 @@
     <t>Classes resume. Follow a Monday Schedule.</t>
   </si>
   <si>
-    <t>Final Presentations</t>
-  </si>
-  <si>
     <t>Last day for graduate and undergraduate students to add courses or change sections or to put courses on audit. Deadline for completion of "NE" grade requirements for Spring 2019 courses.</t>
   </si>
   <si>
@@ -276,36 +262,6 @@
     <t>All residence halls close by 5:00 pm.</t>
   </si>
   <si>
-    <t>Python Basics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python conditionals, loops, functions, aggregating. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python conditionals, loops, functions, aggregating (continued) </t>
-  </si>
-  <si>
-    <t>Python visualization, data manipulation , and feature creation.</t>
-  </si>
-  <si>
-    <t>Python visualization, data manipulation , and feature creation (continued)</t>
-  </si>
-  <si>
-    <t>Overview of Modeling</t>
-  </si>
-  <si>
-    <t>Text and NLP</t>
-  </si>
-  <si>
-    <t>Image Data and Deep Learning</t>
-  </si>
-  <si>
-    <t>Automl and Model Search</t>
-  </si>
-  <si>
-    <t>Automl and Modeling Packages</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -342,15 +298,6 @@
     <t>textbook_logo_link</t>
   </si>
   <si>
-    <t>Python and Regression</t>
-  </si>
-  <si>
-    <t>Unsupervised Models</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -360,33 +307,15 @@
     <t>Assignment</t>
   </si>
   <si>
-    <t>Course Overview &amp; Introduction to the Data Science Lifecycle</t>
-  </si>
-  <si>
     <t>Labor day – no class</t>
   </si>
   <si>
-    <t>Modeling evaluation</t>
-  </si>
-  <si>
     <t>Columbus day – no class</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Series Analysis </t>
-  </si>
-  <si>
-    <t>Time Series Analysis</t>
-  </si>
-  <si>
-    <t>Advanced supervised models</t>
-  </si>
-  <si>
     <t>Thanksgiving</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Presentations </t>
-  </si>
-  <si>
     <t xml:space="preserve">Welcome and class overview </t>
   </si>
   <si>
@@ -462,21 +391,12 @@
     <t>Term Paper Presentations</t>
   </si>
   <si>
-    <t>Linear Programming 1 (First in Person Class, Tuesday follow Monday Schedule)</t>
-  </si>
-  <si>
-    <t>Python Basics  (First in Person Class, Tuesday follow Monday Schedule)</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
     <t>Final Exam</t>
   </si>
   <si>
-    <t>Review for Exam2</t>
-  </si>
-  <si>
     <t>Review for Final</t>
   </si>
   <si>
@@ -489,21 +409,12 @@
     <t>IMS Chapter 1</t>
   </si>
   <si>
-    <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some of the basic technologies we will use in the class, including Excel Solver.</t>
-  </si>
-  <si>
-    <t>files/assignments/01starter.xlsx</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>File</t>
   </si>
   <si>
-    <t xml:space="preserve">This will test your ability to use Jupyter notebooks. </t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -525,15 +436,6 @@
     <t>notebooks/datastructures</t>
   </si>
   <si>
-    <t>Kaggle</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/</t>
-  </si>
-  <si>
-    <t>assignments/02starter</t>
-  </si>
-  <si>
     <t>IMS Chapter 2</t>
   </si>
   <si>
@@ -553,6 +455,15 @@
   </si>
   <si>
     <t>files/syllabus.pdf</t>
+  </si>
+  <si>
+    <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some basic modeling of business senarios.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1IGle5FErQZB7QLa2H3vqraGL9Oglh07P</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -773,13 +684,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,1000 +1005,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016444B-EE05-3D4D-B0A3-3C88CB09CFFF}">
-  <dimension ref="A2:G79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" style="11"/>
-    <col min="3" max="4" width="10.6640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="61.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
-        <v>44074</v>
-      </c>
-      <c r="D5" s="16" t="str">
-        <f>TEXT(C5,"ddd")</f>
-        <v>Mon</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="11">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="27">
-        <v>44077</v>
-      </c>
-      <c r="D6" s="16" t="str">
-        <f t="shared" ref="D6:D35" si="0">TEXT(C6,"ddd")</f>
-        <v>Thu</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="11" customFormat="1">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="27">
-        <v>44081</v>
-      </c>
-      <c r="D7" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27">
-        <v>44082</v>
-      </c>
-      <c r="D8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11">
-        <f t="shared" ref="B9:B29" si="1">B8+1</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="27">
-        <v>44084</v>
-      </c>
-      <c r="D9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="11">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="27">
-        <v>44088</v>
-      </c>
-      <c r="D10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="11">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C11" s="27">
-        <v>44091</v>
-      </c>
-      <c r="D11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="11">
-        <v>4</v>
-      </c>
-      <c r="B12" s="11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="27">
-        <v>44095</v>
-      </c>
-      <c r="D12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="27">
-        <v>44098</v>
-      </c>
-      <c r="D13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="27">
-        <v>44102</v>
-      </c>
-      <c r="D14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11">
-        <v>5</v>
-      </c>
-      <c r="B15" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C15" s="27">
-        <v>44105</v>
-      </c>
-      <c r="D15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C16" s="27">
-        <v>44109</v>
-      </c>
-      <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C17" s="27">
-        <v>44112</v>
-      </c>
-      <c r="D17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="11">
-        <v>7</v>
-      </c>
-      <c r="C18" s="27">
-        <v>44116</v>
-      </c>
-      <c r="D18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11">
-        <v>13</v>
-      </c>
-      <c r="C19" s="27">
-        <v>44119</v>
-      </c>
-      <c r="D19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11">
-        <v>8</v>
-      </c>
-      <c r="B20" s="11">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="27">
-        <v>44123</v>
-      </c>
-      <c r="D20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11">
-        <v>8</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="27">
-        <v>44126</v>
-      </c>
-      <c r="D21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11">
-        <v>9</v>
-      </c>
-      <c r="B22" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="27">
-        <v>44130</v>
-      </c>
-      <c r="D22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="11">
-        <v>9</v>
-      </c>
-      <c r="B23" s="11">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C23" s="27">
-        <v>44133</v>
-      </c>
-      <c r="D23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11">
-        <v>10</v>
-      </c>
-      <c r="B24" s="11">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="27">
-        <v>44137</v>
-      </c>
-      <c r="D24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="11">
-        <v>10</v>
-      </c>
-      <c r="B25" s="11">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C25" s="27">
-        <v>44140</v>
-      </c>
-      <c r="D25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="11">
-        <v>11</v>
-      </c>
-      <c r="B26" s="11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C26" s="27">
-        <v>44144</v>
-      </c>
-      <c r="D26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11">
-        <v>11</v>
-      </c>
-      <c r="B27" s="11">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C27" s="27">
-        <v>44147</v>
-      </c>
-      <c r="D27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="11">
-        <v>12</v>
-      </c>
-      <c r="B28" s="11">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C28" s="27">
-        <v>44151</v>
-      </c>
-      <c r="D28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11">
-        <v>12</v>
-      </c>
-      <c r="B29" s="11">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C29" s="27">
-        <v>44154</v>
-      </c>
-      <c r="D29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11">
-        <v>13</v>
-      </c>
-      <c r="C30" s="27">
-        <v>44158</v>
-      </c>
-      <c r="D30" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11">
-        <v>13</v>
-      </c>
-      <c r="B31" s="11">
-        <v>24</v>
-      </c>
-      <c r="C31" s="27">
-        <v>44161</v>
-      </c>
-      <c r="D31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="11">
-        <v>14</v>
-      </c>
-      <c r="B32" s="11">
-        <v>25</v>
-      </c>
-      <c r="C32" s="27">
-        <v>44165</v>
-      </c>
-      <c r="D32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="11">
-        <v>14</v>
-      </c>
-      <c r="B33" s="11">
-        <f t="shared" ref="B33:B35" si="2">B32+1</f>
-        <v>26</v>
-      </c>
-      <c r="C33" s="27">
-        <v>44168</v>
-      </c>
-      <c r="D33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="11">
-        <v>15</v>
-      </c>
-      <c r="B34" s="11">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="C34" s="27">
-        <v>44172</v>
-      </c>
-      <c r="D34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="11">
-        <v>15</v>
-      </c>
-      <c r="B35" s="11">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="C35" s="27">
-        <v>44175</v>
-      </c>
-      <c r="D35" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="C36" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{23D8F992-D81F-F747-9EEA-10298202C981}"/>
-    <hyperlink ref="D6:D35" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{433848AE-9CD2-2045-A1F7-6F238627BAC1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D439674D-C2C9-D043-B694-3F3762249CC7}">
   <dimension ref="A4:C11"/>
   <sheetViews>
@@ -2099,17 +1016,17 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2137,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +1062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
@@ -2171,10 +1088,10 @@
   <sheetData>
     <row r="1" spans="1:22" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
@@ -2208,10 +1125,10 @@
         <v>Mon</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2232,10 +1149,10 @@
         <v>Thu</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2254,7 +1171,7 @@
         <v>Mon</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4">
@@ -2276,10 +1193,10 @@
         <v>Tue</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2301,10 +1218,10 @@
         <v>Thu</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -2326,10 +1243,10 @@
         <v>Mon</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2351,10 +1268,10 @@
         <v>Thu</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2376,10 +1293,10 @@
         <v>Mon</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2401,10 +1318,10 @@
         <v>Thu</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2441,10 +1358,10 @@
         <v>Mon</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2481,10 +1398,10 @@
         <v>Thu</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2521,10 +1438,10 @@
         <v>Mon</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2561,10 +1478,10 @@
         <v>Thu</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2598,10 +1515,10 @@
         <v>Mon</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2637,10 +1554,10 @@
         <v>Thu</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -2677,10 +1594,10 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2717,10 +1634,10 @@
         <v>Thu</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -2757,10 +1674,10 @@
         <v>Mon</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -2797,10 +1714,10 @@
         <v>Thu</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -2837,10 +1754,10 @@
         <v>Mon</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -2877,10 +1794,10 @@
         <v>Thu</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -2917,10 +1834,10 @@
         <v>Mon</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -2957,10 +1874,10 @@
         <v>Thu</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -2997,10 +1914,10 @@
         <v>Mon</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -3037,10 +1954,10 @@
         <v>Thu</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -3074,10 +1991,10 @@
         <v>Mon</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -3113,10 +2030,10 @@
         <v>Thu</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -3152,10 +2069,10 @@
         <v>Mon</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -3192,10 +2109,10 @@
         <v>Thu</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
@@ -3232,10 +2149,10 @@
         <v>Mon</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
@@ -3272,10 +2189,10 @@
         <v>Thu</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
@@ -3306,10 +2223,10 @@
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
@@ -7950,11 +6867,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
@@ -7971,16 +6888,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7988,13 +6905,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8002,10 +6919,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8016,10 +6933,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8030,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C5" s="10"/>
     </row>
@@ -8039,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -8141,13 +7058,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8159,44 +7076,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="14">
-        <v>2</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -8204,18 +7121,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>163</v>
+        <v>86</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="11"/>
@@ -8475,19 +7402,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0083014F-7035-4640-AC95-F975038E4BAD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CD4BAD18-AFE2-1F43-AF2F-01017C4D77C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8502,19 +7430,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1" ht="19">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -8522,34 +7450,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="D2" s="28">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="27">
-        <v>44084</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="31"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="23"/>
@@ -11309,11 +10226,14 @@
       <c r="C922" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{53DDE146-12FE-9D43-AEB5-CED36CFBDFCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
@@ -11360,10 +10280,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>43709</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11386,7 +10306,7 @@
         <v>43721</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -11394,29 +10314,29 @@
         <v>43728</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>43739</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>43752</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
@@ -11424,15 +10344,15 @@
         <v>43753</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
@@ -11440,15 +10360,15 @@
         <v>43757</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
@@ -11456,21 +10376,21 @@
         <v>43763</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>43770</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -11478,15 +10398,15 @@
         <v>43770</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -11494,7 +10414,7 @@
         <v>43777</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -11502,7 +10422,7 @@
         <v>43787</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -11510,7 +10430,7 @@
         <v>43791</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
@@ -11518,29 +10438,29 @@
         <v>43795</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>43800</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>43800</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -11548,7 +10468,7 @@
         <v>43801</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -11556,7 +10476,7 @@
         <v>43801</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -11564,15 +10484,15 @@
         <v>43810</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
@@ -11580,15 +10500,15 @@
         <v>43815</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -11596,15 +10516,15 @@
         <v>43820</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
@@ -11612,21 +10532,21 @@
         <v>43830</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>43831</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -11634,7 +10554,7 @@
         <v>43833</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
@@ -11642,7 +10562,7 @@
         <v>43842</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
@@ -11650,7 +10570,7 @@
         <v>43843</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
@@ -11658,7 +10578,7 @@
         <v>43850</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
@@ -11666,21 +10586,21 @@
         <v>43854</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>43862</v>
       </c>
-      <c r="B45" s="35"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>43868</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
@@ -11688,7 +10608,7 @@
         <v>43878</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -11696,29 +10616,29 @@
         <v>43879</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="34">
+      <c r="A49" s="33">
         <v>43891</v>
       </c>
-      <c r="B49" s="35"/>
+      <c r="B49" s="34"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>43892</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
@@ -11726,15 +10646,15 @@
         <v>43896</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -11742,7 +10662,7 @@
         <v>43905</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
@@ -11750,15 +10670,15 @@
         <v>43906</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -11766,7 +10686,7 @@
         <v>43915</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -11774,21 +10694,21 @@
         <v>43917</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="34">
+      <c r="A59" s="33">
         <v>43922</v>
       </c>
-      <c r="B59" s="35"/>
+      <c r="B59" s="34"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>43931</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
@@ -11796,7 +10716,7 @@
         <v>43945</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
@@ -11804,15 +10724,15 @@
         <v>43950</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
@@ -11820,21 +10740,21 @@
         <v>43951</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>43952</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
@@ -11842,15 +10762,15 @@
         <v>43955</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
@@ -11858,7 +10778,7 @@
         <v>43955</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
@@ -11866,7 +10786,7 @@
         <v>43959</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
@@ -11874,7 +10794,7 @@
         <v>43960</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
@@ -11882,7 +10802,7 @@
         <v>43973</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
@@ -11890,7 +10810,7 @@
         <v>43974</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
@@ -11898,7 +10818,7 @@
         <v>43974</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1"/>
@@ -12911,7 +11831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -12926,7 +11846,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="e">
         <f>#REF!</f>
@@ -12935,7 +11855,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="e">
         <f>#REF!</f>
@@ -12944,7 +11864,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7" t="e">
         <f>#REF!</f>
@@ -12953,7 +11873,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B4" s="7" t="e">
         <f>#REF!</f>
@@ -12962,7 +11882,7 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B5" s="24" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
@@ -12971,7 +11891,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B6" s="9" t="e">
         <f>#REF!</f>
@@ -12980,7 +11900,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B7" s="7" t="e">
         <f>#REF!</f>
@@ -12989,7 +11909,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B8" s="7" t="e">
         <f>#REF!</f>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C2B05-1D80-1A4B-9803-F2FD6AC9DC74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD991E-AA73-BD4C-AA26-54738E1E4EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -460,10 +461,10 @@
     <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some basic modeling of business senarios.</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1IGle5FErQZB7QLa2H3vqraGL9Oglh07P</t>
-  </si>
-  <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>https://rpi.box.com/s/ldy9h2bfaz00gek5a9cotyz21sboab95</t>
   </si>
 </sst>
 </file>
@@ -684,13 +685,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1066,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -7064,7 +7065,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7093,10 +7094,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7104,13 +7105,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>3</v>
@@ -7401,12 +7402,8 @@
       <c r="C69" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0083014F-7035-4640-AC95-F975038E4BAD}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{CD4BAD18-AFE2-1F43-AF2F-01017C4D77C8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7414,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7452,8 +7449,8 @@
       <c r="B2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>144</v>
+      <c r="C2" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="D2" s="28">
         <v>44084</v>
@@ -10227,7 +10224,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{53DDE146-12FE-9D43-AEB5-CED36CFBDFCD}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D2BAC1DF-F243-C848-B253-6284BC26D3C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10280,10 +10277,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>43709</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -10326,10 +10323,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <v>43739</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -10380,10 +10377,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <v>43770</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -10450,10 +10447,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <v>43800</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -10536,10 +10533,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <v>43831</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -10590,10 +10587,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="34">
         <v>43862</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -10620,10 +10617,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="34">
         <v>43891</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -10698,10 +10695,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="34">
         <v>43922</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="35"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -10744,10 +10741,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="34">
         <v>43952</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD991E-AA73-BD4C-AA26-54738E1E4EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08531B07-ECAB-5E41-9C92-63054F9FF934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -22,12 +22,11 @@
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
   <si>
     <t>Day</t>
   </si>
@@ -465,6 +464,12 @@
   </si>
   <si>
     <t>https://rpi.box.com/s/ldy9h2bfaz00gek5a9cotyz21sboab95</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=92a8cf07069043c89c6c7a2fe13d702d</t>
+  </si>
+  <si>
+    <t>Webex Recording of Class</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -7063,9 +7068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7105,30 +7110,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4">
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>85</v>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -7136,18 +7141,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="11"/>
@@ -7402,8 +7417,11 @@
       <c r="C69" s="26"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CB9C11A5-17E1-C347-B73B-231F7EFC2E4E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08531B07-ECAB-5E41-9C92-63054F9FF934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48027E0C-85FA-4D4B-9E8C-BEFAF92C93D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
   <si>
     <t>Day</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>Webex Recording of Class</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1J4xgrXKPvZNWhMERysltpCZktmjBXFCAL9Nt5rP2Imw/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -7070,7 +7076,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7136,37 +7142,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>85</v>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="11"/>
@@ -7419,9 +7435,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{CB9C11A5-17E1-C347-B73B-231F7EFC2E4E}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C6125792-974A-1E4A-92D4-11F30D3A48C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48027E0C-85FA-4D4B-9E8C-BEFAF92C93D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B15F6C-A6B4-D44E-8B41-308329225BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
   <si>
     <t>Day</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1J4xgrXKPvZNWhMERysltpCZktmjBXFCAL9Nt5rP2Imw/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=a4765e23f1074bf8a945ac6350835bf4</t>
   </si>
 </sst>
 </file>
@@ -7072,11 +7075,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="A9:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7156,18 +7159,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
@@ -7175,18 +7178,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="11"/>
@@ -7237,76 +7250,76 @@
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="5"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="5"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="5"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="5"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="5"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="5"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="5"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="5"/>
@@ -7362,75 +7375,31 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="26"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="5"/>
-      <c r="C63" s="26"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="5"/>
-      <c r="C64" s="26"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="5"/>
-      <c r="C65" s="26"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="5"/>
-      <c r="C66" s="26"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="5"/>
-      <c r="C67" s="26"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="5"/>
-      <c r="C68" s="26"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="26"/>
+      <c r="C58" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B15F6C-A6B4-D44E-8B41-308329225BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA4D80-8B76-734E-B1BE-8BFE90EBF736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
   <si>
     <t>Day</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=a4765e23f1074bf8a945ac6350835bf4</t>
+  </si>
+  <si>
+    <t>Solving Linear Programming Graphically</t>
+  </si>
+  <si>
+    <t>notebooks/graphical</t>
   </si>
 </sst>
 </file>
@@ -7079,7 +7085,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="A9:D19"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7201,9 +7207,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="14">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="11"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA4D80-8B76-734E-B1BE-8BFE90EBF736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFB1ED-F192-0940-A8FB-3D0FE7E607D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
   <si>
     <t>Day</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>notebooks/graphical</t>
+  </si>
+  <si>
+    <t>This will be an introduction to solving linear programming graphically.  We are going to go though some basic concepts and solve using Python and Excel.</t>
+  </si>
+  <si>
+    <t>We will introduce the homework and go  through some problem solving examples.</t>
   </si>
 </sst>
 </file>
@@ -1087,12 +1093,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1217,7 +1223,7 @@
         <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1242,7 +1248,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -7083,7 +7089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFB1ED-F192-0940-A8FB-3D0FE7E607D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5EF57-B87B-D84E-8AA5-688CEE7655B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
   <si>
     <t>Day</t>
   </si>
@@ -478,9 +478,6 @@
     <t>https://docs.google.com/presentation/d/1J4xgrXKPvZNWhMERysltpCZktmjBXFCAL9Nt5rP2Imw/edit?usp=sharing</t>
   </si>
   <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=a4765e23f1074bf8a945ac6350835bf4</t>
-  </si>
-  <si>
     <t>Solving Linear Programming Graphically</t>
   </si>
   <si>
@@ -491,6 +488,12 @@
   </si>
   <si>
     <t>We will introduce the homework and go  through some problem solving examples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rensselaer.webex.com/rensselaer/ldr.php?RCID=a4765e23f1074bf8a945ac6350835bf4 </t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/208f58b3a24c428ba50fabf1a16fefff</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,6 +721,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1093,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -1223,7 +1229,7 @@
         <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1248,7 +1254,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -7089,9 +7095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7178,25 +7184,25 @@
       <c r="B6" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>150</v>
+      <c r="C6" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4">
       <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>85</v>
+      <c r="B7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
@@ -7204,10 +7210,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>85</v>
@@ -7217,23 +7223,43 @@
       <c r="A9" s="14">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>152</v>
+      <c r="B9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="68">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="11"/>
@@ -7427,9 +7453,10 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{CB9C11A5-17E1-C347-B73B-231F7EFC2E4E}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{C6125792-974A-1E4A-92D4-11F30D3A48C9}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{84FFC786-F162-8B45-B448-0E30A2F53C13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4BF10-D4DB-6C48-8887-0E5D33DC2551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53255FB4-E430-574A-A25E-64B1EC930C71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
   <si>
     <t>Day</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Solving Linear Programming Graphically</t>
   </si>
   <si>
-    <t>notebooks/graphical</t>
-  </si>
-  <si>
     <t>This will be an introduction to solving linear programming graphically.  We are going to go though some basic concepts and solve using Python and Excel.</t>
   </si>
   <si>
@@ -497,6 +494,12 @@
   </si>
   <si>
     <t xml:space="preserve">This involves solving objective functions with constraints graphically. </t>
+  </si>
+  <si>
+    <t>notebooks/graphical-min</t>
+  </si>
+  <si>
+    <t>notebooks/graphical-max</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1232,7 @@
         <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1254,7 +1257,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -6904,7 +6907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -7100,9 +7103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7190,7 +7193,7 @@
         <v>147</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
@@ -7246,7 +7249,7 @@
         <v>150</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>85</v>
@@ -7260,7 +7263,7 @@
         <v>147</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
@@ -7280,9 +7283,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="14">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="11"/>
@@ -7532,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>145</v>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53255FB4-E430-574A-A25E-64B1EC930C71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72AA02B-2170-0444-B344-19A4C3F36E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Day</t>
   </si>
@@ -478,9 +478,6 @@
     <t>https://docs.google.com/presentation/d/1J4xgrXKPvZNWhMERysltpCZktmjBXFCAL9Nt5rP2Imw/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Solving Linear Programming Graphically</t>
-  </si>
-  <si>
     <t>This will be an introduction to solving linear programming graphically.  We are going to go though some basic concepts and solve using Python and Excel.</t>
   </si>
   <si>
@@ -500,6 +497,21 @@
   </si>
   <si>
     <t>notebooks/graphical-max</t>
+  </si>
+  <si>
+    <t>Solving Minimization Linear Programming Graphically</t>
+  </si>
+  <si>
+    <t>Solving Maximization Linear Programming Graphically</t>
+  </si>
+  <si>
+    <t>IMS Chapter 3</t>
+  </si>
+  <si>
+    <t>IMS Chapter 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will include an overview of how to do sensitiivity analysis. </t>
   </si>
 </sst>
 </file>
@@ -1102,12 +1114,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1232,7 +1244,7 @@
         <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1257,7 +1269,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1282,10 +1294,10 @@
         <v>99</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1307,10 +1319,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -6910,7 +6922,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7005,20 +7017,40 @@
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:4">
@@ -7103,9 +7135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7193,7 +7225,7 @@
         <v>147</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
@@ -7246,10 +7278,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>85</v>
@@ -7263,7 +7295,7 @@
         <v>147</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
@@ -7288,10 +7320,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>85</v>
@@ -7545,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>145</v>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72AA02B-2170-0444-B344-19A4C3F36E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89AFDE1-545D-C940-AB3B-AE362D74D322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89AFDE1-545D-C940-AB3B-AE362D74D322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD8B41-C930-E249-B889-C7F541B9E52C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
   <si>
     <t>Day</t>
   </si>
@@ -512,6 +512,18 @@
   </si>
   <si>
     <t xml:space="preserve">This will include an overview of how to do sensitiivity analysis. </t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/a595d00a0f2b4972842057b5c3d92976</t>
+  </si>
+  <si>
+    <t>Excel in class</t>
+  </si>
+  <si>
+    <t>HM2 Exercise</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1MN9gDfUnJ5srpFQEWckiwDOdnSGiDAheYS1psl5wj3E/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -7135,9 +7147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7330,16 +7342,46 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="68">
+      <c r="A15" s="14">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="14">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11"/>
@@ -7514,9 +7556,10 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{CB9C11A5-17E1-C347-B73B-231F7EFC2E4E}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{C6125792-974A-1E4A-92D4-11F30D3A48C9}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{84FFC786-F162-8B45-B448-0E30A2F53C13}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{0444DDB7-925C-E94F-95A5-B15BC5E5D76B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD8B41-C930-E249-B889-C7F541B9E52C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833969C7-1E8C-BB41-B732-AD59FEAB0C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
   <si>
     <t>Day</t>
   </si>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1MN9gDfUnJ5srpFQEWckiwDOdnSGiDAheYS1psl5wj3E/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=67f08a34fc4f4db093b00ce6a210de65</t>
+  </si>
+  <si>
+    <t>Webex Recording of Class (Part 1)</t>
+  </si>
+  <si>
+    <t>Webex Recording of Class (Part 2)</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=76c9808239844395a3d319d556ccf122</t>
   </si>
 </sst>
 </file>
@@ -7148,7 +7160,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -7383,67 +7395,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51">
+      <c r="A18" s="14">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="B20" s="11"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="5"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:4">
       <c r="B22" s="5"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:4">
       <c r="B23" s="5"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:4">
       <c r="B24" s="5"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:4">
       <c r="B25" s="5"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="5"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
       <c r="B27" s="5"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:4">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:4">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:4">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
@@ -7557,9 +7599,10 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{C6125792-974A-1E4A-92D4-11F30D3A48C9}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{84FFC786-F162-8B45-B448-0E30A2F53C13}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{0444DDB7-925C-E94F-95A5-B15BC5E5D76B}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{A76FDD7A-77E3-B440-A509-B442AA289815}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833969C7-1E8C-BB41-B732-AD59FEAB0C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035FDAE-D35B-204D-BC5E-10332898F2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
   <si>
     <t>Day</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=76c9808239844395a3d319d556ccf122</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>notebooks/computational</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -7159,9 +7165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7438,12 +7444,32 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="15"/>
+      <c r="A20" s="14">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17">
+      <c r="A21" s="14">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="5"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035FDAE-D35B-204D-BC5E-10332898F2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CB2733-0524-5941-BC38-A32D7741B368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="174">
   <si>
     <t>Day</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>notebooks/computational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This involve solving objective functions with Excel solver. .  </t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=72236ad1d33e4600b905879e58e1ab1b</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -7165,9 +7171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7471,9 +7477,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="15"/>
+    <row r="22" spans="1:4" ht="51">
+      <c r="A22" s="14">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="5"/>
@@ -7637,7 +7653,7 @@
   <dimension ref="A1:E922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7701,8 +7717,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="22"/>
+    <row r="4" spans="1:5" ht="34">
+      <c r="A4" s="19">
+        <v>6</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="26">
+        <f>D3+7</f>
+        <v>44102</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="22"/>
@@ -10462,6 +10493,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D2BAC1DF-F243-C848-B253-6284BC26D3C5}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{91CC856C-22A3-9242-9A38-A77227DF7679}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{FAA066FE-3D61-354B-9835-2E7FB2DAE430}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CB2733-0524-5941-BC38-A32D7741B368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750532E3-F943-DD4E-ABCB-EE51DEAAD052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="181">
   <si>
     <t>Day</t>
   </si>
@@ -548,6 +548,27 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=72236ad1d33e4600b905879e58e1ab1b</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=af13c8883399464c824fce0a30adea20</t>
+  </si>
+  <si>
+    <t>See HM4 in box. More practice with translating problems to Excel.</t>
+  </si>
+  <si>
+    <t>More examples of solving linear programming.</t>
+  </si>
+  <si>
+    <t>Overview of solving Integer programming models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview of distribution models. </t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam.  </t>
   </si>
 </sst>
 </file>
@@ -1150,12 +1171,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1380,7 +1401,7 @@
         <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -1405,7 +1426,7 @@
         <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1445,7 +1466,7 @@
         <v>103</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1485,7 +1506,7 @@
         <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1525,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -1565,7 +1586,7 @@
         <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -7090,6 +7111,9 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
     </row>
@@ -7171,9 +7195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7491,9 +7515,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="15"/>
+    <row r="23" spans="1:4" ht="51">
+      <c r="A23" s="14">
+        <v>7</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="5"/>
@@ -7642,9 +7676,10 @@
     <hyperlink ref="C6" r:id="rId3" xr:uid="{84FFC786-F162-8B45-B448-0E30A2F53C13}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{0444DDB7-925C-E94F-95A5-B15BC5E5D76B}"/>
     <hyperlink ref="C19" r:id="rId5" xr:uid="{A76FDD7A-77E3-B440-A509-B442AA289815}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{4CC1926C-C713-4744-8046-F94F72942278}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -7653,7 +7688,7 @@
   <dimension ref="A1:E922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7735,8 +7770,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="22"/>
+    <row r="5" spans="1:5" ht="34">
+      <c r="A5" s="19">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="26">
+        <f>D4+7</f>
+        <v>44109</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="22"/>
@@ -10494,6 +10544,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D2BAC1DF-F243-C848-B253-6284BC26D3C5}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{91CC856C-22A3-9242-9A38-A77227DF7679}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{FAA066FE-3D61-354B-9835-2E7FB2DAE430}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{959A77B7-74EE-F640-81DD-BEE2AEBC8F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750532E3-F943-DD4E-ABCB-EE51DEAAD052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B67D1B-F3D6-CA4B-BAA9-4AB51C703DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -550,9 +550,6 @@
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=72236ad1d33e4600b905879e58e1ab1b</t>
   </si>
   <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=af13c8883399464c824fce0a30adea20</t>
-  </si>
-  <si>
     <t>See HM4 in box. More practice with translating problems to Excel.</t>
   </si>
   <si>
@@ -569,6 +566,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exam.  </t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/81e5a43124864832b5558c03731fc132</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -1401,7 +1401,7 @@
         <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>103</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>106</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -7195,9 +7195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7515,7 +7515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51">
+    <row r="23" spans="1:4" ht="68">
       <c r="A23" s="14">
         <v>7</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>147</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -7676,7 +7676,7 @@
     <hyperlink ref="C6" r:id="rId3" xr:uid="{84FFC786-F162-8B45-B448-0E30A2F53C13}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{0444DDB7-925C-E94F-95A5-B15BC5E5D76B}"/>
     <hyperlink ref="C19" r:id="rId5" xr:uid="{A76FDD7A-77E3-B440-A509-B442AA289815}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{4CC1926C-C713-4744-8046-F94F72942278}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{6EAD52B3-9057-8942-BB84-2239EAC7BDDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -7775,7 +7775,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>145</v>
